--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,235 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43911</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43659</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43547</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43295</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43183</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43015</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42931</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42819</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F8" s="3">
         <v>45800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>55600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>32100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>51000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>44000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>48700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>32100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>52200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>41900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>53900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>31900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>49800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F9" s="3">
         <v>35700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>42700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>23600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>38800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>31600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>37200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>23200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>40200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>30500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>40800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>23600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>39600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F10" s="3">
         <v>10100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>12900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>12200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>12400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>11500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>12000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>11400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>13100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +910,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +956,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,25 +1006,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1008,16 +1048,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,19 +1071,19 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
       <c r="G15" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1046,22 +1092,28 @@
         <v>400</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>500</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+      <c r="R15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1127,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F17" s="3">
         <v>42900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>53200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>31700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>46000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>38800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>46700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>30400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>47100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>37800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>50600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>29600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>46100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,8 +1247,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1202,80 +1270,92 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>13100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>16200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1284,16 +1364,16 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1313,96 +1393,114 @@
       <c r="P22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>600</v>
       </c>
       <c r="O24" s="3">
         <v>1000</v>
       </c>
       <c r="P24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1543,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>12100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>12100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,52 +1693,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-600</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>3000</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>3000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1793,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,8 +1843,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1730,75 +1870,87 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>12100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1993,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>12100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43911</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43659</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43547</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43295</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43183</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43015</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42931</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42819</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2122,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2142,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,192 +2238,222 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F43" s="3">
         <v>37200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>36900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>33000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>41800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>36500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>30800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>29400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>40100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>35300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>33000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>29300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>36700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F44" s="3">
         <v>48400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>48000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>47700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>39100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>45700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>41500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>40100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>35200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>42400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>37500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>37200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>33800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4200</v>
       </c>
       <c r="H45" s="3">
         <v>3000</v>
       </c>
       <c r="I45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>86900</v>
+      </c>
+      <c r="F46" s="3">
         <v>93600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>92500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>88000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>87900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>96300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>90600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>75200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>80300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>82800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>75800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>71900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>75600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2258,28 +2468,34 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>20200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>20300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>19600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>18500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>17400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>19000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,87 +2503,99 @@
         <v>16400</v>
       </c>
       <c r="E48" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F48" s="3">
         <v>16400</v>
       </c>
       <c r="G48" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I48" s="3">
         <v>15500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>13000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>13500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>13700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F49" s="3">
         <v>45900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>46300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>45800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>46200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>40200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>40500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>40900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>41200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>41600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>42000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>42500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>42300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2638,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,8 +2688,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2469,10 +2709,10 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2484,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2496,10 +2736,16 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2788,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>148800</v>
+      </c>
+      <c r="F54" s="3">
         <v>156000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>155500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>150300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>149500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>149800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>144100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>150200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>156100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>158200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>150200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>145300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>150800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2862,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,66 +2882,74 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F57" s="3">
         <v>9900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2690,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>18900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1300</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
@@ -2708,162 +2976,186 @@
         <v>1300</v>
       </c>
       <c r="P58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F60" s="3">
         <v>19600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>20400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>32300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>19500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>22000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>18600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>24700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>22400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>23000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>24200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3000</v>
       </c>
       <c r="J62" s="3">
         <v>3000</v>
@@ -2872,22 +3164,28 @@
         <v>3000</v>
       </c>
       <c r="L62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>6400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3228,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3278,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3328,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F66" s="3">
         <v>29900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>28300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>39000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>44400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>52100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>46200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>43100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>49000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3402,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3448,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3498,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3548,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3598,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F72" s="3">
         <v>111800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>112800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>112500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>113900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>112000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>110100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>99500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>99900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>94000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>92400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>91600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>91700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3698,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3748,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3798,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>126200</v>
+      </c>
+      <c r="F76" s="3">
         <v>126100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>127200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>127000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>128300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>126400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>124600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>111200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>111700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>106100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>104100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>102200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>101700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3898,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43911</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43659</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43547</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43295</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43183</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43015</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42931</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42819</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>12100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +4027,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
       </c>
       <c r="I83" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>900</v>
       </c>
       <c r="K83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>900</v>
+      </c>
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +4123,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +4173,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4223,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4273,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4323,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F89" s="3">
         <v>7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>10300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4397,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4493,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,8 +4543,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,43 +4558,49 @@
         <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>34100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4617,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4178,10 +4646,10 @@
         <v>-1800</v>
       </c>
       <c r="K96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="L96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="M96" s="3">
         <v>-1700</v>
@@ -4190,13 +4658,19 @@
         <v>-1700</v>
       </c>
       <c r="O96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4713,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4763,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4813,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-24300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-13500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,48 +4913,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44023</v>
+      </c>
+      <c r="E7" s="2">
         <v>43911</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43659</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43547</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43295</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43183</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43015</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42931</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42819</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E8" s="3">
         <v>37300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>53900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>49800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E9" s="3">
         <v>27100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>39600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,25 +1029,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1054,21 +1074,24 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
@@ -1077,10 +1100,10 @@
         <v>300</v>
       </c>
       <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3">
         <v>500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>300</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
@@ -1089,22 +1112,22 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3">
         <v>500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E17" s="3">
         <v>34900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>46000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>47100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>46100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,8 +1282,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1276,89 +1310,95 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>13100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E21" s="3">
         <v>3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1370,13 +1410,13 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1399,108 +1439,117 @@
       <c r="R22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,19 +1757,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1719,23 +1780,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>3000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1743,14 +1804,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,8 +1916,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1876,81 +1946,87 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-13100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3600</v>
       </c>
       <c r="J33" s="3">
         <v>3600</v>
       </c>
       <c r="K33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L33" s="3">
         <v>12100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3600</v>
       </c>
       <c r="J35" s="3">
         <v>3600</v>
       </c>
       <c r="K35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L35" s="3">
         <v>12100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44023</v>
+      </c>
+      <c r="E38" s="2">
         <v>43911</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43659</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43547</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43295</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43183</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43015</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42931</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42819</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1600</v>
       </c>
       <c r="N41" s="3">
         <v>1600</v>
       </c>
       <c r="O41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,208 +2334,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E43" s="3">
         <v>32600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E44" s="3">
         <v>42200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>48400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>48000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>45700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>33800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3000</v>
       </c>
       <c r="H45" s="3">
         <v>3000</v>
       </c>
       <c r="I45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2900</v>
       </c>
       <c r="L45" s="3">
         <v>2900</v>
       </c>
       <c r="M45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E46" s="3">
         <v>83600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>86900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>93600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>92500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>88000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>87900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>96300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>71900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>75600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2474,128 +2579,137 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>20200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E48" s="3">
         <v>16400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>13700</v>
       </c>
       <c r="R48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E49" s="3">
         <v>45300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,8 +2811,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2715,7 +2835,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2730,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2742,10 +2862,13 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E54" s="3">
         <v>145400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>148800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>156000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>150300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>149500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>149800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>144100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>156100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>158200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>145300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>150800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,58 +3014,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2952,7 +3086,7 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2964,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>18900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1300</v>
       </c>
       <c r="N58" s="3">
         <v>1300</v>
@@ -2982,110 +3116,119 @@
         <v>1300</v>
       </c>
       <c r="R58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E60" s="3">
         <v>15500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3096,17 +3239,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>5200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3114,51 +3257,54 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
         <v>4800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5100</v>
       </c>
       <c r="G62" s="3">
         <v>5100</v>
       </c>
       <c r="H62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I62" s="3">
         <v>4800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3000</v>
       </c>
       <c r="K62" s="3">
         <v>3000</v>
@@ -3170,22 +3316,25 @@
         <v>3000</v>
       </c>
       <c r="N62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E66" s="3">
         <v>20300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E72" s="3">
         <v>111100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>112000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>111800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>112800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>112500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>113900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>112000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>110100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>99500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>99900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>94000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>92400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>91600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>91700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E76" s="3">
         <v>125200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>127200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>127000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>128300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>111200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>104100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>102200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44023</v>
+      </c>
+      <c r="E80" s="2">
         <v>43911</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43659</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43547</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43295</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43183</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43015</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42931</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42819</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3600</v>
       </c>
       <c r="J81" s="3">
         <v>3600</v>
       </c>
       <c r="K81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L81" s="3">
         <v>12100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1000</v>
       </c>
       <c r="J91" s="3">
         <v>-1000</v>
       </c>
       <c r="K91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-400</v>
       </c>
       <c r="R91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>34100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,8 +4852,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4652,7 +4886,7 @@
         <v>-1800</v>
       </c>
       <c r="M96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="N96" s="3">
         <v>-1700</v>
@@ -4664,13 +4898,16 @@
         <v>-1700</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="R96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,58 +5062,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1900</v>
       </c>
       <c r="H100" s="3">
         <v>1900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="J100" s="3">
         <v>-1800</v>
       </c>
       <c r="K100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L100" s="3">
         <v>-24300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4919,54 +5168,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44023</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43911</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43659</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43547</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43295</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43183</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43015</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42931</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42819</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E8" s="3">
         <v>83500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>53900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>49800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E9" s="3">
         <v>60300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>39600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E10" s="3">
         <v>23200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1049,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,24 +1097,27 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1103,10 +1126,10 @@
         <v>300</v>
       </c>
       <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1115,22 +1138,22 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
       </c>
       <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E17" s="3">
         <v>72700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>42900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>47100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>46100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>10800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,8 +1316,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1313,95 +1347,101 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>13100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E21" s="3">
         <v>12200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1413,13 +1453,13 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,11 +1832,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1783,23 +1844,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-600</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>3000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1807,14 +1868,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,8 +1986,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1949,84 +2019,90 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-13100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3600</v>
       </c>
       <c r="K33" s="3">
         <v>3600</v>
       </c>
       <c r="L33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M33" s="3">
         <v>12100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>3600</v>
       </c>
       <c r="K35" s="3">
         <v>3600</v>
       </c>
       <c r="L35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M35" s="3">
         <v>12100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44023</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43911</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43659</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43547</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43295</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43183</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43015</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42931</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42819</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>16700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1600</v>
       </c>
       <c r="O41" s="3">
         <v>1600</v>
       </c>
       <c r="P41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,220 +2427,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E43" s="3">
         <v>49500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E44" s="3">
         <v>41700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>48400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>48000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>45700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3000</v>
       </c>
       <c r="I45" s="3">
         <v>3000</v>
       </c>
       <c r="J45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2900</v>
       </c>
       <c r="M45" s="3">
         <v>2900</v>
       </c>
       <c r="N45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E46" s="3">
         <v>109900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>83600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>93600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>92500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>88000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>87900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>96300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>90600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>82800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>71900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2582,134 +2687,143 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>20200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E48" s="3">
         <v>16100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>13700</v>
       </c>
       <c r="S48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E49" s="3">
         <v>44800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,13 +2931,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2838,7 +2958,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2853,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2865,10 +2985,13 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E54" s="3">
         <v>170900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>145400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>148800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>156000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>155500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>150300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>149500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>144100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>156100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>158200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>150200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>145300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>150800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,61 +3145,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E57" s="3">
         <v>18100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3089,7 +3223,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3101,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>18900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1300</v>
       </c>
       <c r="O58" s="3">
         <v>1300</v>
@@ -3119,116 +3253,125 @@
         <v>1300</v>
       </c>
       <c r="S58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E59" s="3">
         <v>15600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E60" s="3">
         <v>33700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3242,17 +3385,17 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>5200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3260,54 +3403,57 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5100</v>
       </c>
       <c r="H62" s="3">
         <v>5100</v>
       </c>
       <c r="I62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J62" s="3">
         <v>4800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3000</v>
       </c>
       <c r="L62" s="3">
         <v>3000</v>
@@ -3319,22 +3465,25 @@
         <v>3000</v>
       </c>
       <c r="O62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P62" s="3">
         <v>5400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E66" s="3">
         <v>38300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E72" s="3">
         <v>118400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>111100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>112000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>111800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>112800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>112500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>113900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>112000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>110100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>99500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>99900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>94000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>92400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>91600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>91700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E76" s="3">
         <v>132600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>125200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>127200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>127000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>128300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>124600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>104100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>102200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>101700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44023</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43911</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43659</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43547</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43295</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43183</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43015</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42931</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42819</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>3600</v>
       </c>
       <c r="K81" s="3">
         <v>3600</v>
       </c>
       <c r="L81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M81" s="3">
         <v>12100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>12900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>-1000</v>
       </c>
       <c r="L91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-400</v>
       </c>
       <c r="S91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>34100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,13 +5086,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-1800</v>
@@ -4889,7 +5123,7 @@
         <v>-1800</v>
       </c>
       <c r="N96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="O96" s="3">
         <v>-1700</v>
@@ -4901,13 +5135,16 @@
         <v>-1700</v>
       </c>
       <c r="R96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="S96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,61 +5308,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1900</v>
       </c>
       <c r="I100" s="3">
         <v>1900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="K100" s="3">
         <v>-1800</v>
       </c>
       <c r="L100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M100" s="3">
         <v>-24300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5171,57 +5420,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E102" s="3">
         <v>10500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44023</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43911</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43659</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43295</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43183</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43015</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42931</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42819</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E8" s="3">
         <v>78100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>83500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>53900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>49800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E9" s="3">
         <v>54500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>60300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>35700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>42700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E10" s="3">
         <v>23600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1069,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,27 +1120,30 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -1129,10 +1152,10 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -1141,22 +1164,22 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
+        <v>300</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>400</v>
       </c>
       <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+      <c r="R15" s="3">
         <v>500</v>
-      </c>
-      <c r="R15" s="3">
-        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>400</v>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E17" s="3">
         <v>65300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>42900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>53200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>47100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>50600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>46100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,8 +1350,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1350,101 +1384,107 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>13100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>13900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1456,13 +1496,13 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>12800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1835,11 +1896,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1847,23 +1908,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>3000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1871,14 +1932,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,8 +2056,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2022,87 +2092,93 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-13100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3600</v>
       </c>
       <c r="L33" s="3">
         <v>3600</v>
       </c>
       <c r="M33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N33" s="3">
         <v>12100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3600</v>
       </c>
       <c r="L35" s="3">
         <v>3600</v>
       </c>
       <c r="M35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N35" s="3">
         <v>12100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44023</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43911</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43659</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43295</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43183</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43015</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42931</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42819</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1600</v>
       </c>
       <c r="P41" s="3">
         <v>1600</v>
       </c>
       <c r="Q41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,232 +2520,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E43" s="3">
         <v>63800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>40100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>36700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E44" s="3">
         <v>63700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>41700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>48400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>45700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3000</v>
       </c>
       <c r="J45" s="3">
         <v>3000</v>
       </c>
       <c r="K45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2900</v>
       </c>
       <c r="N45" s="3">
         <v>2900</v>
       </c>
       <c r="O45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E46" s="3">
         <v>136900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>83600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>86900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>88000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>96300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>90600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>82800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>75800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>71900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2690,140 +2795,149 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>20200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>17400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E48" s="3">
         <v>17300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>13700</v>
       </c>
       <c r="T48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E49" s="3">
         <v>44500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,16 +3051,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2961,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2976,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2988,10 +3108,13 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E54" s="3">
         <v>198700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>170900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>145400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>148800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>156000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>155500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>150300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>144100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>156100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>158200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>150200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>145300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>150800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,64 +3276,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E57" s="3">
         <v>32100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3217,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3226,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3238,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>18900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1300</v>
       </c>
       <c r="P58" s="3">
         <v>1300</v>
@@ -3256,127 +3390,136 @@
         <v>1300</v>
       </c>
       <c r="T58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E59" s="3">
         <v>21100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E60" s="3">
         <v>53200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3388,17 +3531,17 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>5200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3406,57 +3549,60 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5100</v>
       </c>
       <c r="I62" s="3">
         <v>5100</v>
       </c>
       <c r="J62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K62" s="3">
         <v>4800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3000</v>
       </c>
       <c r="M62" s="3">
         <v>3000</v>
@@ -3468,22 +3614,25 @@
         <v>3000</v>
       </c>
       <c r="P62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E66" s="3">
         <v>57700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E72" s="3">
         <v>126900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>118400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>111100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>112000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>111800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>112800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>112500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>113900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>112000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>110100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>99500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>99900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>94000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>92400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>91600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>91700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E76" s="3">
         <v>141000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>132600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>125200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>127200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>127000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>128300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>124600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>106100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>104100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>102200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>101700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44023</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43911</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43659</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43295</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43183</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43015</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42931</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42819</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3600</v>
       </c>
       <c r="L81" s="3">
         <v>3600</v>
       </c>
       <c r="M81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N81" s="3">
         <v>12100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1000</v>
       </c>
       <c r="L91" s="3">
         <v>-1000</v>
       </c>
       <c r="M91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-400</v>
       </c>
       <c r="T91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>34100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5320,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5096,7 +5330,7 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-1800</v>
@@ -5126,7 +5360,7 @@
         <v>-1800</v>
       </c>
       <c r="O96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="P96" s="3">
         <v>-1700</v>
@@ -5138,13 +5372,16 @@
         <v>-1700</v>
       </c>
       <c r="S96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="T96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,64 +5554,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1900</v>
       </c>
       <c r="J100" s="3">
         <v>1900</v>
       </c>
       <c r="K100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="L100" s="3">
         <v>-1800</v>
       </c>
       <c r="M100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N100" s="3">
         <v>-24300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5423,60 +5672,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,287 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44275</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44023</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43911</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43743</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43659</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43379</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43295</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43183</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43015</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42931</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42819</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E8" s="3">
         <v>74800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>83500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>53900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>49800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E9" s="3">
         <v>56900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>30500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>39600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E10" s="3">
         <v>17900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +967,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1027,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1089,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,16 +1143,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-300</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1140,13 +1163,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
@@ -1155,10 +1178,10 @@
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
@@ -1167,22 +1190,22 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
+        <v>300</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
       </c>
       <c r="R15" s="3">
+        <v>400</v>
+      </c>
+      <c r="S15" s="3">
         <v>500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
@@ -1190,8 +1213,11 @@
       <c r="U15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E17" s="3">
         <v>67800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>47100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>50600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>46100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E18" s="3">
         <v>7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,8 +1384,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1387,107 +1421,113 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>13100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E21" s="3">
         <v>7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1499,13 +1539,13 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1528,8 +1568,11 @@
       <c r="U22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,117 +1580,123 @@
         <v>6900</v>
       </c>
       <c r="E23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F23" s="3">
         <v>12800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1940,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1899,11 +1960,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1911,23 +1972,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1935,14 +1996,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,8 +2126,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2095,90 +2165,96 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-13100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>3600</v>
       </c>
       <c r="M33" s="3">
         <v>3600</v>
       </c>
       <c r="N33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O33" s="3">
         <v>12100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>3600</v>
       </c>
       <c r="M35" s="3">
         <v>3600</v>
       </c>
       <c r="N35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O35" s="3">
         <v>12100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44275</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44023</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43911</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43743</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43659</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43379</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43295</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43183</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43015</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42931</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42819</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,67 +2491,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1600</v>
       </c>
       <c r="Q41" s="3">
         <v>1600</v>
       </c>
       <c r="R41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2523,244 +2613,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E43" s="3">
         <v>65300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>63800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>40100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E44" s="3">
         <v>72500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>63700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>41700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>45700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>37200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>33800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3000</v>
       </c>
       <c r="K45" s="3">
         <v>3000</v>
       </c>
       <c r="L45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2900</v>
       </c>
       <c r="O45" s="3">
         <v>2900</v>
       </c>
       <c r="P45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E46" s="3">
         <v>145400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>136900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>83600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>86900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>93600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>92500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>88000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>87900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>96300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>90600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>82800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>71900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>75600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2798,146 +2903,155 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>20200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>17400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E48" s="3">
         <v>19800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>13700</v>
       </c>
       <c r="U48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E49" s="3">
         <v>55300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,8 +3171,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3063,10 +3183,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3084,7 +3204,7 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3099,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3111,10 +3231,13 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E54" s="3">
         <v>220700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>198700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>170900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>145400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>148800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>156000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>155500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>149800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>144100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>156100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>158200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>150200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>145300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>150800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,72 +3407,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E57" s="3">
         <v>20900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3354,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3363,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3375,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>18900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1300</v>
       </c>
       <c r="Q58" s="3">
         <v>1300</v>
@@ -3393,137 +3527,146 @@
         <v>1300</v>
       </c>
       <c r="U58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E59" s="3">
         <v>25100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E60" s="3">
         <v>46100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E61" s="3">
         <v>30100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3534,17 +3677,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>5200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3552,60 +3695,63 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5100</v>
       </c>
       <c r="J62" s="3">
         <v>5100</v>
       </c>
       <c r="K62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L62" s="3">
         <v>4800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3000</v>
       </c>
       <c r="N62" s="3">
         <v>3000</v>
@@ -3617,22 +3763,25 @@
         <v>3000</v>
       </c>
       <c r="Q62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R62" s="3">
         <v>5400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E66" s="3">
         <v>81500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4297,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E72" s="3">
         <v>125200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>126900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>118400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>111100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>112000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>111800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>112800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>112500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>113900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>112000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>110100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>99500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>99900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>94000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>92400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>91600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>91700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E76" s="3">
         <v>139200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>141000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>132600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>125200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>127200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>127000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>128300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>124600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>106100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>104100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>102200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>101700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44275</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44023</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43911</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43743</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43659</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43379</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43295</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43183</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43015</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42931</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42819</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>3600</v>
       </c>
       <c r="M81" s="3">
         <v>3600</v>
       </c>
       <c r="N81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O81" s="3">
         <v>12100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,67 +4824,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5194,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,67 +5282,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1000</v>
       </c>
       <c r="M91" s="3">
         <v>-1000</v>
       </c>
       <c r="N91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-400</v>
       </c>
       <c r="U91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5466,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>34100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,8 +5554,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5333,7 +5567,7 @@
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>-1800</v>
@@ -5363,7 +5597,7 @@
         <v>-1800</v>
       </c>
       <c r="P96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Q96" s="3">
         <v>-1700</v>
@@ -5375,13 +5609,16 @@
         <v>-1700</v>
       </c>
       <c r="T96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="U96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,67 +5800,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E100" s="3">
         <v>22800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1900</v>
       </c>
       <c r="K100" s="3">
         <v>1900</v>
       </c>
       <c r="L100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="M100" s="3">
         <v>-1800</v>
       </c>
       <c r="N100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O100" s="3">
         <v>-24300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5675,63 +5924,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,287 +665,300 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44387</v>
+      </c>
+      <c r="E7" s="2">
         <v>44275</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44023</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43911</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43743</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43659</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43547</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43379</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43295</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43183</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43015</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42931</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42819</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E8" s="3">
         <v>59200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>83500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>47000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>48700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>52200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>53900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>49800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E9" s="3">
         <v>41800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>56900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>60300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>30500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>39600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E10" s="3">
         <v>17400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,8 +981,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1044,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1092,8 +1109,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1146,33 +1166,36 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-300</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>300</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
@@ -1181,10 +1204,10 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>300</v>
@@ -1193,22 +1216,22 @@
         <v>300</v>
       </c>
       <c r="O15" s="3">
+        <v>300</v>
+      </c>
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
       </c>
       <c r="S15" s="3">
+        <v>400</v>
+      </c>
+      <c r="T15" s="3">
         <v>500</v>
-      </c>
-      <c r="T15" s="3">
-        <v>400</v>
       </c>
       <c r="U15" s="3">
         <v>400</v>
@@ -1216,8 +1239,11 @@
       <c r="V15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1237,132 +1263,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E17" s="3">
         <v>52100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>65300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>47100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>50600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>29600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>46100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E18" s="3">
         <v>7100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1385,8 +1418,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,113 +1458,119 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>13100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E21" s="3">
         <v>8300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1542,13 +1582,13 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1571,132 +1611,141 @@
       <c r="V22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6900</v>
+        <v>10300</v>
       </c>
       <c r="E23" s="3">
         <v>6900</v>
       </c>
       <c r="F23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G23" s="3">
         <v>12800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1757,132 +1806,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1943,8 +2001,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1963,11 +2024,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1975,23 +2036,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>3000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1999,14 +2060,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2067,8 +2131,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2129,8 +2196,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2168,93 +2238,99 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-13100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3600</v>
       </c>
       <c r="N33" s="3">
         <v>3600</v>
       </c>
       <c r="O33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P33" s="3">
         <v>12100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2315,137 +2391,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>3600</v>
       </c>
       <c r="N35" s="3">
         <v>3600</v>
       </c>
       <c r="O35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P35" s="3">
         <v>12100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44387</v>
+      </c>
+      <c r="E38" s="2">
         <v>44275</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44023</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43911</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43743</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43659</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43547</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43379</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43295</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43183</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43015</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42931</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42819</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2468,8 +2553,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2492,70 +2578,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1600</v>
       </c>
       <c r="R41" s="3">
         <v>1600</v>
       </c>
       <c r="S41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2616,256 +2706,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E43" s="3">
         <v>54500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>63800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>40100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>33000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>36700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E44" s="3">
         <v>91400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>72500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>63700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>47700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>45700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>37500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>37200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>33800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3000</v>
       </c>
       <c r="L45" s="3">
         <v>3000</v>
       </c>
       <c r="M45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2900</v>
       </c>
       <c r="P45" s="3">
         <v>2900</v>
       </c>
       <c r="Q45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E46" s="3">
         <v>155800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>145400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>136900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>109900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>83600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>86900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>93600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>92500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>88000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>96300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>90600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>80300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>82800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>71900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>75600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2906,152 +3011,161 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>20200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>17400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E48" s="3">
         <v>21100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13500</v>
-      </c>
-      <c r="U48" s="3">
-        <v>13700</v>
       </c>
       <c r="V48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E49" s="3">
         <v>54900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3112,8 +3226,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3174,8 +3291,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3186,10 +3306,10 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3207,7 +3327,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3222,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3234,10 +3354,13 @@
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3298,70 +3421,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>231600</v>
+      </c>
+      <c r="E54" s="3">
         <v>232000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>220700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>198700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>170900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>145400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>148800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>156000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>149500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>149800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>144100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>150200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>156100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>158200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>150200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>145300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>150800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3384,8 +3513,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3408,79 +3538,83 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E57" s="3">
         <v>22700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -3491,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3500,7 +3634,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3512,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>18900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1300</v>
       </c>
       <c r="R58" s="3">
         <v>1300</v>
@@ -3530,146 +3664,155 @@
         <v>1300</v>
       </c>
       <c r="V58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E59" s="3">
         <v>15000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E60" s="3">
         <v>37700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E61" s="3">
         <v>46900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3680,17 +3823,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>5200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3698,63 +3841,66 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E62" s="3">
         <v>5500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>5100</v>
       </c>
       <c r="K62" s="3">
         <v>5100</v>
       </c>
       <c r="L62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M62" s="3">
         <v>4800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3000</v>
       </c>
       <c r="O62" s="3">
         <v>3000</v>
@@ -3766,22 +3912,25 @@
         <v>3000</v>
       </c>
       <c r="R62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S62" s="3">
         <v>5400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3842,8 +3991,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3904,8 +4056,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3966,70 +4121,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E66" s="3">
         <v>90100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4052,8 +4213,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4114,8 +4276,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4176,8 +4341,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4238,8 +4406,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4300,70 +4471,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E72" s="3">
         <v>128000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>125200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>126900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>118400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>111100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>112000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>111800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>112800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>112500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>113900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>112000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>110100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>99500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>99900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>94000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>92400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>91600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>91700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4424,8 +4601,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4486,8 +4666,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4548,70 +4731,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E76" s="3">
         <v>141900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>139200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>141000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>132600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>125200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>127200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>127000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>128300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>126400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>124600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>106100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>104100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>102200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>101700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4672,137 +4861,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44387</v>
+      </c>
+      <c r="E80" s="2">
         <v>44275</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44023</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43911</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43743</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43659</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43547</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43379</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43295</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43183</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43015</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42931</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42819</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>3600</v>
       </c>
       <c r="N81" s="3">
         <v>3600</v>
       </c>
       <c r="O81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P81" s="3">
         <v>12100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4825,70 +5023,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4949,8 +5151,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5011,8 +5216,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5073,8 +5281,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5135,8 +5346,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5197,70 +5411,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5283,70 +5503,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1000</v>
       </c>
       <c r="N91" s="3">
         <v>-1000</v>
       </c>
       <c r="O91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-400</v>
       </c>
       <c r="V91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5407,8 +5631,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5469,70 +5696,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>34100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5555,13 +5788,14 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E96" s="3">
         <v>-2000</v>
@@ -5570,7 +5804,7 @@
         <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="H96" s="3">
         <v>-1800</v>
@@ -5600,7 +5834,7 @@
         <v>-1800</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="R96" s="3">
         <v>-1700</v>
@@ -5612,13 +5846,16 @@
         <v>-1700</v>
       </c>
       <c r="U96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="V96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5679,8 +5916,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5741,8 +5981,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5803,70 +6046,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>14000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1900</v>
       </c>
       <c r="L100" s="3">
         <v>1900</v>
       </c>
       <c r="M100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="N100" s="3">
         <v>-1800</v>
       </c>
       <c r="O100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P100" s="3">
         <v>-24300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5927,66 +6176,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,300 +665,313 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44387</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44275</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44023</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43911</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43743</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43659</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43547</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43379</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43295</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43183</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43015</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42931</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42819</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E8" s="3">
         <v>99700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>83500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>51000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>52200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>53900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>49800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E9" s="3">
         <v>74600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>56900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>60300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>39600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E10" s="3">
         <v>25100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,8 +995,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1061,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1129,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1169,36 +1189,39 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-300</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1207,10 +1230,10 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>300</v>
@@ -1219,22 +1242,22 @@
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>400</v>
       </c>
       <c r="T15" s="3">
+        <v>400</v>
+      </c>
+      <c r="U15" s="3">
         <v>500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>400</v>
       </c>
       <c r="V15" s="3">
         <v>400</v>
@@ -1242,8 +1265,11 @@
       <c r="W15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1264,138 +1290,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E17" s="3">
         <v>89000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>46700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>47100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>37800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>50600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>29600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>46100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E18" s="3">
         <v>10700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1419,13 +1452,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1461,96 +1495,102 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>13100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,22 +1598,22 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1585,13 +1625,13 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1614,138 +1654,147 @@
       <c r="W22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>10300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6900</v>
       </c>
       <c r="F23" s="3">
         <v>6900</v>
       </c>
       <c r="G23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H23" s="3">
         <v>12800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1809,138 +1858,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2004,8 +2062,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,11 +2088,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2039,23 +2100,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>3000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,14 +2124,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2134,8 +2198,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2199,13 +2266,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2241,96 +2311,102 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>3600</v>
       </c>
       <c r="O33" s="3">
         <v>3600</v>
       </c>
       <c r="P33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>12100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2394,143 +2470,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>3600</v>
       </c>
       <c r="O35" s="3">
         <v>3600</v>
       </c>
       <c r="P35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>12100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44387</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44275</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44023</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43911</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43743</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43659</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43547</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43379</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43295</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43183</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43015</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42931</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42819</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2554,8 +2639,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2579,73 +2665,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>10600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1600</v>
       </c>
       <c r="S41" s="3">
         <v>1600</v>
       </c>
       <c r="T41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U41" s="3">
         <v>2300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2709,268 +2799,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E43" s="3">
         <v>52200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>65300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>63800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>40100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>33000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>36700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E44" s="3">
         <v>86600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>91400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>72500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>63700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>42300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>47700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>45700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>35200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>37500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>33800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3000</v>
       </c>
       <c r="M45" s="3">
         <v>3000</v>
       </c>
       <c r="N45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O45" s="3">
         <v>4200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>2900</v>
       </c>
       <c r="Q45" s="3">
         <v>2900</v>
       </c>
       <c r="R45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S45" s="3">
         <v>3400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E46" s="3">
         <v>154300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>155800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>145400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>136900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>109900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>83600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>86900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>93600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>88000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>87900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>96300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>90600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>75200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>80300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>82800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>75800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>71900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>75600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3014,158 +3119,167 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>20200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>17400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E48" s="3">
         <v>22900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>13700</v>
       </c>
       <c r="W48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E49" s="3">
         <v>54300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>55300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3229,8 +3343,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3294,8 +3411,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3309,10 +3429,10 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3330,7 +3450,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3345,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3357,10 +3477,13 @@
         <v>100</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3424,73 +3547,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>254200</v>
+      </c>
+      <c r="E54" s="3">
         <v>231600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>232000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>220700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>198700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>170900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>145400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>148800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>156000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>149500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>149800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>144100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>150200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>156100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>158200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>150200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>145300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>150800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3514,8 +3643,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3539,85 +3669,89 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E57" s="3">
         <v>14700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3628,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3637,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3649,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>18900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1300</v>
       </c>
       <c r="S58" s="3">
         <v>1300</v>
@@ -3667,155 +3801,164 @@
         <v>1300</v>
       </c>
       <c r="W58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E59" s="3">
         <v>16600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E60" s="3">
         <v>38400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>37700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E61" s="3">
         <v>42900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>46900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3826,17 +3969,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>5200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3844,66 +3987,69 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E62" s="3">
         <v>5200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5100</v>
       </c>
       <c r="L62" s="3">
         <v>5100</v>
       </c>
       <c r="M62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N62" s="3">
         <v>4800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3000</v>
       </c>
       <c r="P62" s="3">
         <v>3000</v>
@@ -3915,22 +4061,25 @@
         <v>3000</v>
       </c>
       <c r="S62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T62" s="3">
         <v>5400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3994,8 +4143,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4059,8 +4211,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4124,73 +4279,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E66" s="3">
         <v>86500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>81500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4214,8 +4375,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4279,8 +4441,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4344,8 +4509,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4409,8 +4577,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4474,73 +4645,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E72" s="3">
         <v>131400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>128000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>125200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>126900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>118400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>111100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>112000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>111800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>112800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>112500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>113900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>112000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>110100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>99500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>99900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>94000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>92400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>91600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>91700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4604,8 +4781,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4669,8 +4849,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4734,73 +4917,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E76" s="3">
         <v>145100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>141900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>139200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>141000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>125200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>127200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>127000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>128300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>126400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>124600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>106100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>104100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>102200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>101700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4864,143 +5053,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44387</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44275</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44023</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43911</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43743</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43659</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43547</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43379</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43295</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43183</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43015</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42931</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42819</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>3600</v>
       </c>
       <c r="O81" s="3">
         <v>3600</v>
       </c>
       <c r="P81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>12100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5024,73 +5222,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5154,8 +5356,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5219,8 +5424,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5284,8 +5492,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5349,8 +5560,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5414,73 +5628,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5504,73 +5724,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1000</v>
       </c>
       <c r="O91" s="3">
         <v>-1000</v>
       </c>
       <c r="P91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-400</v>
       </c>
       <c r="W91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5634,8 +5858,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5699,73 +5926,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>34100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5789,8 +6022,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5798,7 +6032,7 @@
         <v>-1900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F96" s="3">
         <v>-2000</v>
@@ -5807,7 +6041,7 @@
         <v>-2000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>-1800</v>
@@ -5837,7 +6071,7 @@
         <v>-1800</v>
       </c>
       <c r="R96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="S96" s="3">
         <v>-1700</v>
@@ -5849,13 +6083,16 @@
         <v>-1700</v>
       </c>
       <c r="V96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="W96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5919,8 +6156,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5984,8 +6224,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6049,73 +6292,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1900</v>
       </c>
       <c r="M100" s="3">
         <v>1900</v>
       </c>
       <c r="N100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="O100" s="3">
         <v>-1800</v>
       </c>
       <c r="P100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6179,69 +6428,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,313 +665,326 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44387</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44275</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44023</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43911</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43743</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43659</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43547</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43379</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43295</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43183</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43015</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42931</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42819</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E8" s="3">
         <v>81300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>78100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>83500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>51000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>48700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>52200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>53900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>49800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E9" s="3">
         <v>63000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>56900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>60300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>30500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>40800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>39600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E10" s="3">
         <v>18300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,8 +1009,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1064,8 +1078,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,8 +1149,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1192,16 +1212,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-300</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,22 +1232,22 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -1233,10 +1256,10 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
+        <v>300</v>
+      </c>
+      <c r="N15" s="3">
         <v>500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
@@ -1245,22 +1268,22 @@
         <v>300</v>
       </c>
       <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
       </c>
       <c r="U15" s="3">
+        <v>400</v>
+      </c>
+      <c r="V15" s="3">
         <v>500</v>
-      </c>
-      <c r="V15" s="3">
-        <v>400</v>
       </c>
       <c r="W15" s="3">
         <v>400</v>
@@ -1268,8 +1291,11 @@
       <c r="X15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1291,144 +1317,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E17" s="3">
         <v>73600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>89000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>67800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>46700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>47100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>37800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>50600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>29600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>46100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E18" s="3">
         <v>7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1453,8 +1486,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1462,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1498,125 +1532,131 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>13100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E21" s="3">
         <v>9000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1628,13 +1668,13 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1657,144 +1697,153 @@
       <c r="X22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6900</v>
       </c>
       <c r="G23" s="3">
         <v>6900</v>
       </c>
       <c r="H23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I23" s="3">
         <v>12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1861,144 +1910,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>6000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2065,8 +2123,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2091,11 +2152,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2103,23 +2164,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>3000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2127,14 +2188,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2201,8 +2265,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2269,8 +2336,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2348,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2314,99 +2384,105 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-13100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3600</v>
       </c>
       <c r="P33" s="3">
         <v>3600</v>
       </c>
       <c r="Q33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R33" s="3">
         <v>12100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2473,149 +2549,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>3600</v>
       </c>
       <c r="P35" s="3">
         <v>3600</v>
       </c>
       <c r="Q35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R35" s="3">
         <v>12100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44387</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44275</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44023</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43911</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43743</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43659</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43547</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43379</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43295</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43183</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43015</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42931</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42819</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2640,8 +2725,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2666,76 +2752,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1600</v>
       </c>
       <c r="T41" s="3">
         <v>1600</v>
       </c>
       <c r="U41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V41" s="3">
         <v>2300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2802,280 +2892,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E43" s="3">
         <v>68800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>65300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>63800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>36500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>40100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>35300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>33000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>36700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E44" s="3">
         <v>91800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>86600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>91400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>72500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>63700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>42200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>42300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>39100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>45700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>41500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>35200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>37200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>33800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3000</v>
       </c>
       <c r="N45" s="3">
         <v>3000</v>
       </c>
       <c r="O45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P45" s="3">
         <v>4200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>2900</v>
       </c>
       <c r="R45" s="3">
         <v>2900</v>
       </c>
       <c r="S45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T45" s="3">
         <v>3400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E46" s="3">
         <v>173600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>154300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>155800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>145400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>136900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>109900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>83600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>93600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>92500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>88000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>87900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>96300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>90600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>80300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>82800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>75800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>71900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>75600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3122,164 +3227,173 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>20200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>17400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E48" s="3">
         <v>26500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>13700</v>
       </c>
       <c r="X48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E49" s="3">
         <v>53900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>55300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3346,8 +3460,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3414,8 +3531,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3432,10 +3552,10 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3453,7 +3573,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3468,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3480,10 +3600,13 @@
         <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3550,76 +3673,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E54" s="3">
         <v>254200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>231600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>232000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>220700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>198700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>170900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>145400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>148800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>156000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>149500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>149800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>144100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>150200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>156100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>158200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>150200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>145300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>150800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3644,8 +3773,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3670,76 +3800,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E57" s="3">
         <v>25100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3749,12 +3883,12 @@
       <c r="E58" s="3">
         <v>7100</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3765,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3774,7 +3908,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3786,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>18900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1300</v>
       </c>
       <c r="T58" s="3">
         <v>1300</v>
@@ -3804,164 +3938,173 @@
         <v>1300</v>
       </c>
       <c r="X58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E59" s="3">
         <v>19200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E60" s="3">
         <v>51400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>37700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E61" s="3">
         <v>51900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>46900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3972,17 +4115,17 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>5200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3990,69 +4133,72 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5100</v>
       </c>
       <c r="M62" s="3">
         <v>5100</v>
       </c>
       <c r="N62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O62" s="3">
         <v>4800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>3000</v>
       </c>
       <c r="Q62" s="3">
         <v>3000</v>
@@ -4064,22 +4210,25 @@
         <v>3000</v>
       </c>
       <c r="T62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U62" s="3">
         <v>5400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4146,8 +4295,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4214,8 +4366,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4282,76 +4437,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E66" s="3">
         <v>109400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>86500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>90100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>81500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>46200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>43100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4376,8 +4537,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4444,8 +4606,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4512,8 +4677,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4580,8 +4748,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4648,76 +4819,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E72" s="3">
         <v>131200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>131400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>128000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>125200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>126900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>118400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>111100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>112000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>111800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>112800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>112500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>113900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>112000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>110100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>99500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>99900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>94000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>92400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>91600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>91700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4784,8 +4961,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4852,8 +5032,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4920,76 +5103,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E76" s="3">
         <v>144700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>145100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>141900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>139200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>141000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>125200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>127200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>127000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>128300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>126400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>124600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>106100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>104100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>102200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>101700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5056,149 +5245,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44387</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44275</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44023</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43911</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43743</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43659</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43547</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43379</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43295</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43183</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43015</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42931</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42819</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>3600</v>
       </c>
       <c r="P81" s="3">
         <v>3600</v>
       </c>
       <c r="Q81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R81" s="3">
         <v>12100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5223,76 +5421,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5359,8 +5561,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5427,8 +5632,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5495,8 +5703,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5563,8 +5774,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5631,76 +5845,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5725,76 +5945,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1000</v>
       </c>
       <c r="P91" s="3">
         <v>-1000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-400</v>
       </c>
       <c r="X91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5861,8 +6085,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5929,76 +6156,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>34100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6023,8 +6256,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6035,7 +6269,7 @@
         <v>-1900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G96" s="3">
         <v>-2000</v>
@@ -6044,7 +6278,7 @@
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-1800</v>
@@ -6074,7 +6308,7 @@
         <v>-1800</v>
       </c>
       <c r="S96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="T96" s="3">
         <v>-1700</v>
@@ -6086,13 +6320,16 @@
         <v>-1700</v>
       </c>
       <c r="W96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="X96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6159,8 +6396,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6227,8 +6467,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6295,76 +6538,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>1900</v>
       </c>
       <c r="N100" s="3">
         <v>1900</v>
       </c>
       <c r="O100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="P100" s="3">
         <v>-1800</v>
       </c>
       <c r="Q100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R100" s="3">
         <v>-24300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6431,72 +6680,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,326 +665,339 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44639</v>
+      </c>
+      <c r="E7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44387</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44275</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44023</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43911</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43743</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43659</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43547</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43379</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43295</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43183</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43015</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42931</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42819</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E8" s="3">
         <v>73400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>99700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>83500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>51000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>48700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>52200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>41900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>53900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>31900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>49800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E9" s="3">
         <v>57100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>63000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>56900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>60300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>37200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>30500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>40800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>23600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>39600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E10" s="3">
         <v>16300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1023,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1081,8 +1095,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,8 +1169,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,42 +1235,45 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-300</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
@@ -1259,10 +1282,10 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
+        <v>300</v>
+      </c>
+      <c r="O15" s="3">
         <v>500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>300</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1271,22 +1294,22 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>400</v>
       </c>
       <c r="U15" s="3">
         <v>400</v>
       </c>
       <c r="V15" s="3">
+        <v>400</v>
+      </c>
+      <c r="W15" s="3">
         <v>500</v>
-      </c>
-      <c r="W15" s="3">
-        <v>400</v>
       </c>
       <c r="X15" s="3">
         <v>400</v>
@@ -1294,8 +1317,11 @@
       <c r="Y15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1318,150 +1344,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E17" s="3">
         <v>67000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>73600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>89000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>46000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>46700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>30400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>47100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>37800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>50600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>29600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>46100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1487,19 +1520,20 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1535,131 +1569,137 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>13100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E21" s="3">
         <v>7300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1671,13 +1711,13 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1700,150 +1740,159 @@
       <c r="Y22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E23" s="3">
         <v>6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>6900</v>
       </c>
       <c r="H23" s="3">
         <v>6900</v>
       </c>
       <c r="I23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J23" s="3">
         <v>12800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1913,150 +1962,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E27" s="3">
         <v>4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,40 +2184,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2167,23 +2228,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>3000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2191,14 +2252,17 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2268,8 +2332,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2339,19 +2406,22 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2387,102 +2457,108 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-13100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E33" s="3">
         <v>4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3600</v>
       </c>
       <c r="Q33" s="3">
         <v>3600</v>
       </c>
       <c r="R33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S33" s="3">
         <v>12100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2552,155 +2628,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E35" s="3">
         <v>4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3600</v>
       </c>
       <c r="Q35" s="3">
         <v>3600</v>
       </c>
       <c r="R35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S35" s="3">
         <v>12100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44639</v>
+      </c>
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44387</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44275</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44023</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43911</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43743</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43659</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43547</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43379</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43295</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43183</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43015</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42931</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42819</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2726,8 +2811,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2753,79 +2839,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
-      </c>
-      <c r="T41" s="3">
-        <v>1600</v>
       </c>
       <c r="U41" s="3">
         <v>1600</v>
       </c>
       <c r="V41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W41" s="3">
         <v>2300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2895,292 +2985,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E43" s="3">
         <v>66700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>68800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>63800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>41800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>40100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>35300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>33000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>36700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E44" s="3">
         <v>92400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>91800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>86600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>91400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>72500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>63700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>42200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>42300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>47700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>45700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>41500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>40100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>37500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>37200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>33800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3000</v>
       </c>
       <c r="O45" s="3">
         <v>3000</v>
       </c>
       <c r="P45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>4200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2900</v>
       </c>
       <c r="S45" s="3">
         <v>2900</v>
       </c>
       <c r="T45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U45" s="3">
         <v>3400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E46" s="3">
         <v>171100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>173600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>154300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>155800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>145400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>136900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>109900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>83600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>86900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>93600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>92500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>88000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>87900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>96300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>90600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>80300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>82800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>75800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>71900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>75600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3230,170 +3335,179 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>20200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>18500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>17400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E48" s="3">
         <v>27100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13500</v>
-      </c>
-      <c r="X48" s="3">
-        <v>13700</v>
       </c>
       <c r="Y48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E49" s="3">
         <v>53500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>53900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>54900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>55300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3463,8 +3577,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3534,13 +3651,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3555,10 +3675,10 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3576,7 +3696,7 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3591,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3603,10 +3723,13 @@
         <v>100</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3676,79 +3799,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>307100</v>
+      </c>
+      <c r="E54" s="3">
         <v>251800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>254200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>231600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>232000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>220700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>198700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>170900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>145400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>148800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>156000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>149500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>149800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>144100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>150200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>156100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>158200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>150200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>145300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>150800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3774,8 +3903,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3801,79 +3931,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E57" s="3">
         <v>15800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3886,12 +4020,12 @@
       <c r="F58" s="3">
         <v>7100</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3902,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3911,7 +4045,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3923,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>18900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1300</v>
       </c>
       <c r="U58" s="3">
         <v>1300</v>
@@ -3941,173 +4075,182 @@
         <v>1300</v>
       </c>
       <c r="Y58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E59" s="3">
         <v>25200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E60" s="3">
         <v>48200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>37700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E61" s="3">
         <v>50400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>46900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4118,17 +4261,17 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>5200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4136,72 +4279,75 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5100</v>
       </c>
       <c r="N62" s="3">
         <v>5100</v>
       </c>
       <c r="O62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P62" s="3">
         <v>4800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>3000</v>
       </c>
       <c r="R62" s="3">
         <v>3000</v>
@@ -4213,22 +4359,25 @@
         <v>3000</v>
       </c>
       <c r="U62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V62" s="3">
         <v>5400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4298,8 +4447,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4369,8 +4521,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4440,79 +4595,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E66" s="3">
         <v>105200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>86500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>44400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>46200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>43100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>49000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4538,8 +4699,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4609,8 +4771,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4680,8 +4845,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4751,8 +4919,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4822,79 +4993,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E72" s="3">
         <v>133100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>131200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>131400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>128000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>125200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>126900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>118400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>111100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>112000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>111800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>112800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>112500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>113900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>112000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>110100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>99500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>99900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>94000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>92400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>91600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>91700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4964,8 +5141,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5035,8 +5215,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5106,79 +5289,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E76" s="3">
         <v>146600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>144700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>145100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>141900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>139200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>141000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>132600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>125200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>127200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>127000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>128300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>126400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>124600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>111700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>106100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>104100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>102200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>101700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5248,155 +5437,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44639</v>
+      </c>
+      <c r="E80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44387</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44275</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44023</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43911</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43743</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43659</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43547</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43379</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43295</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43183</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43015</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42931</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42819</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E81" s="3">
         <v>4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>3600</v>
       </c>
       <c r="Q81" s="3">
         <v>3600</v>
       </c>
       <c r="R81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S81" s="3">
         <v>12100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5422,79 +5620,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5564,8 +5766,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5635,8 +5840,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5706,8 +5914,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5777,8 +5988,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5848,79 +6062,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5946,79 +6166,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q91" s="3">
         <v>-1000</v>
       </c>
       <c r="R91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-400</v>
       </c>
       <c r="Y91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6088,8 +6312,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6159,79 +6386,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>34100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6257,13 +6490,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-1900</v>
@@ -6272,7 +6506,7 @@
         <v>-1900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="3">
         <v>-2000</v>
@@ -6281,7 +6515,7 @@
         <v>-2000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="K96" s="3">
         <v>-1800</v>
@@ -6311,7 +6545,7 @@
         <v>-1800</v>
       </c>
       <c r="T96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="U96" s="3">
         <v>-1700</v>
@@ -6323,13 +6557,16 @@
         <v>-1700</v>
       </c>
       <c r="X96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="Y96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6399,8 +6636,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6470,8 +6710,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6541,79 +6784,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1900</v>
       </c>
       <c r="O100" s="3">
         <v>1900</v>
       </c>
       <c r="P100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="Q100" s="3">
         <v>-1800</v>
       </c>
       <c r="R100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S100" s="3">
         <v>-24300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6683,75 +6932,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,339 +665,352 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44751</v>
+      </c>
+      <c r="E7" s="2">
         <v>44639</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44387</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44275</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44023</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43911</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43743</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43659</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43547</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43379</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43295</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43183</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43015</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42931</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42819</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E8" s="3">
         <v>72400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>81300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>99700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>59200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>55600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>51000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>48700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>52200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>41900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>53900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>31900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>49800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E9" s="3">
         <v>52300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>56900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>60300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>37200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>40200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>30500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>40800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>23600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>39600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E10" s="3">
         <v>20100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1024,8 +1037,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1098,8 +1112,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1189,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,45 +1258,48 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
       </c>
       <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>300</v>
@@ -1285,10 +1308,10 @@
         <v>300</v>
       </c>
       <c r="O15" s="3">
+        <v>300</v>
+      </c>
+      <c r="P15" s="3">
         <v>500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1297,22 +1320,22 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>300</v>
-      </c>
-      <c r="U15" s="3">
-        <v>400</v>
       </c>
       <c r="V15" s="3">
         <v>400</v>
       </c>
       <c r="W15" s="3">
+        <v>400</v>
+      </c>
+      <c r="X15" s="3">
         <v>500</v>
-      </c>
-      <c r="X15" s="3">
-        <v>400</v>
       </c>
       <c r="Y15" s="3">
         <v>400</v>
@@ -1320,8 +1343,11 @@
       <c r="Z15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1345,156 +1371,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E17" s="3">
         <v>63400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>89000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>46000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>46700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>30400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>47100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>37800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>50600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>29600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>46100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E18" s="3">
         <v>9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1521,22 +1554,23 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1572,137 +1606,143 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>13100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E21" s="3">
         <v>10500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1714,13 +1754,13 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1743,156 +1783,165 @@
       <c r="Z22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6900</v>
       </c>
       <c r="I23" s="3">
         <v>6900</v>
       </c>
       <c r="J23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K23" s="3">
         <v>12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1965,156 +2014,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2187,8 +2245,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2213,17 +2274,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2231,23 +2292,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>3000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2255,14 +2316,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2335,8 +2399,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2409,22 +2476,25 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2460,105 +2530,111 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-13100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>3600</v>
       </c>
       <c r="R33" s="3">
         <v>3600</v>
       </c>
       <c r="S33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T33" s="3">
         <v>12100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2631,161 +2707,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>3600</v>
       </c>
       <c r="R35" s="3">
         <v>3600</v>
       </c>
       <c r="S35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T35" s="3">
         <v>12100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44751</v>
+      </c>
+      <c r="E38" s="2">
         <v>44639</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44387</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44275</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44023</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43911</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43743</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43659</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43547</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43379</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43295</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43183</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43015</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42931</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42819</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2812,8 +2897,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2840,82 +2926,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E41" s="3">
         <v>6400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
-      </c>
-      <c r="U41" s="3">
-        <v>1600</v>
       </c>
       <c r="V41" s="3">
         <v>1600</v>
       </c>
       <c r="W41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X41" s="3">
         <v>2300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2988,304 +3078,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E43" s="3">
         <v>67300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>66700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>68800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>65300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>63800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>41800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>40100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>35300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>33000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>29300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>36700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E44" s="3">
         <v>114600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>92400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>91800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>86600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>91400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>72500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>63700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>42200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>42300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>47700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>39100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>45700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>41500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>40100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>35200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>42400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>37500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>37200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>33800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>3000</v>
       </c>
       <c r="P45" s="3">
         <v>3000</v>
       </c>
       <c r="Q45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R45" s="3">
         <v>4200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2900</v>
       </c>
       <c r="T45" s="3">
         <v>2900</v>
       </c>
       <c r="U45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V45" s="3">
         <v>3400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E46" s="3">
         <v>201000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>171100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>173600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>154300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>155800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>145400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>136900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>109900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>86900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>93600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>88000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>87900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>96300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>90600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>75200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>80300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>82800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>75800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>71900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>75600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3338,176 +3443,185 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>20200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>17400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E48" s="3">
         <v>30700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13500</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>13700</v>
       </c>
       <c r="Z48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E49" s="3">
         <v>75000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>53500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>53900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>54300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>54900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>55300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>42300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3580,8 +3694,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3654,8 +3771,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3663,7 +3783,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3678,10 +3798,10 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3699,7 +3819,7 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3714,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3726,10 +3846,13 @@
         <v>100</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3802,82 +3925,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>316900</v>
+      </c>
+      <c r="E54" s="3">
         <v>307100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>251800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>254200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>231600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>232000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>220700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>198700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>170900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>145400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>148800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>156000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>150300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>149500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>149800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>144100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>150200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>156100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>158200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>150200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>145300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>150800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3904,8 +4033,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3932,82 +4062,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E57" s="3">
         <v>27400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4023,12 +4157,12 @@
       <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -4039,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4048,7 +4182,7 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4060,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>18900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1300</v>
       </c>
       <c r="V58" s="3">
         <v>1300</v>
@@ -4078,182 +4212,191 @@
         <v>1300</v>
       </c>
       <c r="Z58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E59" s="3">
         <v>21600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E60" s="3">
         <v>56100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>37700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>53200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E61" s="3">
         <v>92900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>42900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>46900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4264,17 +4407,17 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>5200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4282,75 +4425,78 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>3800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E62" s="3">
         <v>6500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>5100</v>
       </c>
       <c r="O62" s="3">
         <v>5100</v>
       </c>
       <c r="P62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3000</v>
       </c>
       <c r="S62" s="3">
         <v>3000</v>
@@ -4362,22 +4508,25 @@
         <v>3000</v>
       </c>
       <c r="V62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W62" s="3">
         <v>5400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4450,8 +4599,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4524,8 +4676,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4598,82 +4753,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E66" s="3">
         <v>155400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>86500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>81500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>44400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>46200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>43100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>49000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4700,8 +4861,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4774,8 +4936,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4848,8 +5013,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4922,8 +5090,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4996,82 +5167,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E72" s="3">
         <v>138000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>133100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>131200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>131400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>128000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>125200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>126900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>118400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>111100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>112000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>111800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>112800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>112500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>113900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>112000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>110100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>99500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>99900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>94000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>92400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>91600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>91700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5144,8 +5321,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5218,8 +5398,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5292,82 +5475,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E76" s="3">
         <v>151600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>146600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>144700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>145100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>141900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>139200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>141000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>125200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>126100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>127200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>127000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>128300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>126400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>124600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>111200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>111700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>106100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>104100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>102200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>101700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5440,161 +5629,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44751</v>
+      </c>
+      <c r="E80" s="2">
         <v>44639</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44387</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44275</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44023</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43911</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43743</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43659</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43547</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43379</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43295</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43183</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43015</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42931</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42819</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>3600</v>
       </c>
       <c r="R81" s="3">
         <v>3600</v>
       </c>
       <c r="S81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T81" s="3">
         <v>12100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5621,82 +5819,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5769,8 +5971,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5843,8 +6048,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5917,8 +6125,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5991,8 +6202,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6065,82 +6279,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6167,82 +6387,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1000</v>
       </c>
       <c r="R91" s="3">
         <v>-1000</v>
       </c>
       <c r="S91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-400</v>
       </c>
       <c r="Z91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6315,8 +6539,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6389,82 +6616,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>34100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6491,8 +6724,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6500,7 +6734,7 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-1900</v>
@@ -6509,7 +6743,7 @@
         <v>-1900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I96" s="3">
         <v>-2000</v>
@@ -6518,7 +6752,7 @@
         <v>-2000</v>
       </c>
       <c r="K96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="L96" s="3">
         <v>-1800</v>
@@ -6548,7 +6782,7 @@
         <v>-1800</v>
       </c>
       <c r="U96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="V96" s="3">
         <v>-1700</v>
@@ -6560,13 +6794,16 @@
         <v>-1700</v>
       </c>
       <c r="Y96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="Z96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6639,8 +6876,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6713,8 +6953,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6787,82 +7030,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>40200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>1900</v>
       </c>
       <c r="P100" s="3">
         <v>1900</v>
       </c>
       <c r="Q100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="R100" s="3">
         <v>-1800</v>
       </c>
       <c r="S100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T100" s="3">
         <v>-24300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6935,78 +7184,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,352 +665,365 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44751</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44639</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44387</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44275</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44023</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43911</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43743</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43659</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43547</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43379</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43295</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43183</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43015</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42931</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42819</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E8" s="3">
         <v>94300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>72400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>99700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>59200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>55600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>51000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>48700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>52200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>41900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>53900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>49800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E9" s="3">
         <v>70600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>63000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>56900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>60300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>37200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>40200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>30500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>40800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>23600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>39600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E10" s="3">
         <v>23700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,8 +1051,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1115,8 +1129,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1192,8 +1209,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,48 +1281,51 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
         <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
       <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>300</v>
@@ -1311,10 +1334,10 @@
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -1323,22 +1346,22 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>300</v>
-      </c>
-      <c r="V15" s="3">
-        <v>400</v>
       </c>
       <c r="W15" s="3">
         <v>400</v>
       </c>
       <c r="X15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y15" s="3">
         <v>500</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>400</v>
       </c>
       <c r="Z15" s="3">
         <v>400</v>
@@ -1346,8 +1369,11 @@
       <c r="AA15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1372,162 +1398,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E17" s="3">
         <v>86100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>89000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>46000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>46700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>30400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>47100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>37800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>50600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>29600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>46100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>8200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1555,25 +1588,26 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1609,143 +1643,149 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>13100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1757,13 +1797,13 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1786,162 +1826,171 @@
       <c r="AA22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6900</v>
       </c>
       <c r="J23" s="3">
         <v>6900</v>
       </c>
       <c r="K23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L23" s="3">
         <v>12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2017,162 +2066,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2248,8 +2306,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,17 +2338,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2295,23 +2356,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-600</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>3000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,14 +2380,17 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2402,8 +2466,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2479,25 +2546,28 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2533,108 +2603,114 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-13100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3600</v>
       </c>
       <c r="S33" s="3">
         <v>3600</v>
       </c>
       <c r="T33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U33" s="3">
         <v>12100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2710,167 +2786,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3600</v>
       </c>
       <c r="S35" s="3">
         <v>3600</v>
       </c>
       <c r="T35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U35" s="3">
         <v>12100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44751</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44639</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44387</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44275</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44023</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43911</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43743</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43659</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43547</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43379</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43295</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43183</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43015</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42931</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42819</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2898,8 +2983,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2927,85 +3013,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
-      </c>
-      <c r="V41" s="3">
-        <v>1600</v>
       </c>
       <c r="W41" s="3">
         <v>1600</v>
       </c>
       <c r="X41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y41" s="3">
         <v>2300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3081,316 +3171,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E43" s="3">
         <v>60600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>68800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>65300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>36900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>41800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>36500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>40100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>35300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>33000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>36700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E44" s="3">
         <v>130200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>114600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>91800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>86600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>91400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>72500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>63700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>42200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>47700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>45700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>41500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>40100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>35200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>42400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>37500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>37200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>33800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3000</v>
       </c>
       <c r="Q45" s="3">
         <v>3000</v>
       </c>
       <c r="R45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S45" s="3">
         <v>4200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3000</v>
-      </c>
-      <c r="T45" s="3">
-        <v>2900</v>
       </c>
       <c r="U45" s="3">
         <v>2900</v>
       </c>
       <c r="V45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W45" s="3">
         <v>3400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E46" s="3">
         <v>204300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>201000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>171100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>173600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>154300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>155800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>145400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>136900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>109900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>93600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>92500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>88000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>87900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>96300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>90600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>75200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>80300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>82800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>75800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>71900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>75600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3446,182 +3551,191 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>20200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>17400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>19000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E48" s="3">
         <v>37700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13500</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>13700</v>
       </c>
       <c r="AA48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E49" s="3">
         <v>74600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>53500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>53900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>54300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>54900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>55300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>42500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>42300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3697,8 +3811,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3774,8 +3891,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3786,7 +3906,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3801,10 +3921,10 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3822,7 +3942,7 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3837,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3849,10 +3969,13 @@
         <v>100</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3928,85 +4051,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>320300</v>
+      </c>
+      <c r="E54" s="3">
         <v>316900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>307100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>251800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>254200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>231600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>232000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>220700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>198700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>170900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>145400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>148800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>156000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>150300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>149500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>149800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>144100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>150200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>156100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>158200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>150200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>145300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>150800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4034,8 +4163,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4063,85 +4193,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E57" s="3">
         <v>24700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4160,12 +4294,12 @@
       <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4176,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4185,7 +4319,7 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4197,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>18900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1300</v>
       </c>
       <c r="W58" s="3">
         <v>1300</v>
@@ -4215,191 +4349,200 @@
         <v>1300</v>
       </c>
       <c r="AA58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E59" s="3">
         <v>21200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E60" s="3">
         <v>53000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>37700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>32300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>18400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E61" s="3">
         <v>94000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>92900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>42900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>46900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4410,17 +4553,17 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>5200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4428,78 +4571,81 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>22400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>23000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E62" s="3">
         <v>13900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>5100</v>
       </c>
       <c r="P62" s="3">
         <v>5100</v>
       </c>
       <c r="Q62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="R62" s="3">
         <v>4800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4500</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3000</v>
       </c>
       <c r="T62" s="3">
         <v>3000</v>
@@ -4511,22 +4657,25 @@
         <v>3000</v>
       </c>
       <c r="W62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X62" s="3">
         <v>5400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4602,8 +4751,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4679,8 +4831,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4756,85 +4911,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E66" s="3">
         <v>160900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>105200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>86500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>81500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>44400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>46200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>43100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>49000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4862,8 +5023,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4939,8 +5101,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5016,8 +5181,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5093,8 +5261,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5170,85 +5341,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E72" s="3">
         <v>142400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>138000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>133100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>131200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>131400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>128000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>125200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>126900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>118400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>111100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>112000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>111800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>112800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>112500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>113900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>112000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>110100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>99500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>99900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>94000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>92400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>91600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>91700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5324,8 +5501,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5401,8 +5581,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5478,85 +5661,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E76" s="3">
         <v>156000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>151600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>146600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>144700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>145100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>141900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>139200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>141000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>125200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>126200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>126100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>127200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>127000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>128300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>126400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>124600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>111200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>111700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>106100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>104100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>102200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>101700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5632,167 +5821,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44751</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44639</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44387</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44275</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44023</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43911</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43743</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43659</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43547</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43379</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43295</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43183</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43015</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42931</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42819</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3600</v>
       </c>
       <c r="S81" s="3">
         <v>3600</v>
       </c>
       <c r="T81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U81" s="3">
         <v>12100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5820,85 +6018,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5974,8 +6176,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6051,8 +6256,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6128,8 +6336,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6205,8 +6416,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6282,85 +6496,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6388,85 +6608,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1000</v>
       </c>
       <c r="S91" s="3">
         <v>-1000</v>
       </c>
       <c r="T91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-400</v>
       </c>
       <c r="AA91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6542,8 +6766,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6619,85 +6846,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>34100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6725,8 +6958,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6737,7 +6971,7 @@
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>-1900</v>
@@ -6746,7 +6980,7 @@
         <v>-1900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J96" s="3">
         <v>-2000</v>
@@ -6755,7 +6989,7 @@
         <v>-2000</v>
       </c>
       <c r="L96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="M96" s="3">
         <v>-1800</v>
@@ -6785,7 +7019,7 @@
         <v>-1800</v>
       </c>
       <c r="V96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="W96" s="3">
         <v>-1700</v>
@@ -6797,13 +7031,16 @@
         <v>-1700</v>
       </c>
       <c r="Z96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="AA96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6879,8 +7116,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6956,8 +7196,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7033,85 +7276,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>40200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="P100" s="3">
-        <v>1900</v>
       </c>
       <c r="Q100" s="3">
         <v>1900</v>
       </c>
       <c r="R100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="S100" s="3">
         <v>-1800</v>
       </c>
       <c r="T100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U100" s="3">
         <v>-24300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7187,81 +7436,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,378 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44751</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44639</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44387</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44275</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44107</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44023</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43911</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43743</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43659</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43547</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43379</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43295</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43183</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43015</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42931</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42819</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E8" s="3">
         <v>74900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>94300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>99700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>59200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>55600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>51000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>44000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>48700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>52200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>41900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>53900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>31900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>49800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E9" s="3">
         <v>61300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>70600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>63000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>60300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>31600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>37200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>40200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>30500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>40800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>23600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>39600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E10" s="3">
         <v>13600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>10200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,8 +1065,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1132,8 +1146,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1212,8 +1229,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,51 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
         <v>600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
       </c>
       <c r="L15" s="3">
+        <v>400</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
@@ -1337,10 +1360,10 @@
         <v>300</v>
       </c>
       <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>500</v>
-      </c>
-      <c r="R15" s="3">
-        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1349,22 +1372,22 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>400</v>
       </c>
       <c r="X15" s="3">
         <v>400</v>
       </c>
       <c r="Y15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z15" s="3">
         <v>500</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>400</v>
       </c>
       <c r="AA15" s="3">
         <v>400</v>
@@ -1372,8 +1395,11 @@
       <c r="AB15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1399,168 +1425,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E17" s="3">
         <v>70700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>67000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>89000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>53200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>31700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>46000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>46700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>30400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>47100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>37800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>50600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>29600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>46100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,28 +1622,29 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1646,31 +1680,34 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>13100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1678,117 +1715,120 @@
         <v>5800</v>
       </c>
       <c r="E21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F21" s="3">
         <v>10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1800,13 +1840,13 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1829,168 +1869,177 @@
       <c r="AB22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>6900</v>
       </c>
       <c r="K23" s="3">
         <v>6900</v>
       </c>
       <c r="L23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M23" s="3">
         <v>12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2069,168 +2118,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2309,8 +2367,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2341,17 +2402,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2359,23 +2420,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-600</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>3000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,14 +2444,17 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2469,8 +2533,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2549,28 +2616,31 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2606,111 +2676,117 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-13100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>3600</v>
       </c>
       <c r="T33" s="3">
         <v>3600</v>
       </c>
       <c r="U33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V33" s="3">
         <v>12100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2789,173 +2865,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>3600</v>
       </c>
       <c r="T35" s="3">
         <v>3600</v>
       </c>
       <c r="U35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V35" s="3">
         <v>12100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44751</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44639</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44387</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44275</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44107</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44023</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43911</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43743</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43659</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43547</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43379</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43295</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43183</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43015</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42931</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42819</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2984,8 +3069,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3014,8 +3100,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3023,79 +3110,82 @@
         <v>4000</v>
       </c>
       <c r="E41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
-      </c>
-      <c r="W41" s="3">
-        <v>1600</v>
       </c>
       <c r="X41" s="3">
         <v>1600</v>
       </c>
       <c r="Y41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z41" s="3">
         <v>2300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3174,328 +3264,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E43" s="3">
         <v>66300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>68800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>52200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>63800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>41800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>30800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>40100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>35300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>33000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>29300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>36700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E44" s="3">
         <v>135000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>130200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>114600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>92400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>91800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>86600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>91400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>63700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>48000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>47700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>39100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>45700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>41500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>40100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>35200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>42400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>37500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>37200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>33800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>3000</v>
       </c>
       <c r="R45" s="3">
         <v>3000</v>
       </c>
       <c r="S45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T45" s="3">
         <v>4200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3000</v>
-      </c>
-      <c r="U45" s="3">
-        <v>2900</v>
       </c>
       <c r="V45" s="3">
         <v>2900</v>
       </c>
       <c r="W45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X45" s="3">
         <v>3400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E46" s="3">
         <v>209400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>204300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>201000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>171100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>173600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>155800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>145400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>136900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>109900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>86900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>93600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>92500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>88000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>87900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>96300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>90600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>75200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>80300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>82800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>75800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>71900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>75600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3554,188 +3659,197 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>20200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>18500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>17400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>19000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E48" s="3">
         <v>36700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13500</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>13700</v>
       </c>
       <c r="AB48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E49" s="3">
         <v>73900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>75000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>53500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>54300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>54900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>41600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>42000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>42500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>42300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3814,8 +3928,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3894,13 +4011,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -3909,7 +4029,7 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3924,10 +4044,10 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3945,7 +4065,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3960,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -3972,10 +4092,13 @@
         <v>100</v>
       </c>
       <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4054,88 +4177,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>298700</v>
+      </c>
+      <c r="E54" s="3">
         <v>320300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>316900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>307100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>251800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>254200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>231600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>232000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>220700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>198700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>170900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>145400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>148800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>156000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>150300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>149500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>149800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>144100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>150200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>156100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>158200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>150200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>145300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>150800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4164,8 +4293,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4194,88 +4324,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E57" s="3">
         <v>22700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4297,12 +4431,12 @@
       <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -4313,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -4322,7 +4456,7 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4334,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>18900</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1300</v>
       </c>
       <c r="X58" s="3">
         <v>1300</v>
@@ -4352,200 +4486,209 @@
         <v>1300</v>
       </c>
       <c r="AB58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E59" s="3">
         <v>19900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>12800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E60" s="3">
         <v>49700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>37700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>32300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>18400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E61" s="3">
         <v>99600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>94000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>92900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>42900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>46900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4556,17 +4699,17 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>5200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4574,81 +4717,84 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>22400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>23000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E62" s="3">
         <v>13800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>5100</v>
       </c>
       <c r="Q62" s="3">
         <v>5100</v>
       </c>
       <c r="R62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S62" s="3">
         <v>4800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>3000</v>
       </c>
       <c r="U62" s="3">
         <v>3000</v>
@@ -4660,22 +4806,25 @@
         <v>3000</v>
       </c>
       <c r="X62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y62" s="3">
         <v>5400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4754,8 +4903,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4834,8 +4986,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4914,88 +5069,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E66" s="3">
         <v>163000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>160900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>105200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>86500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>44400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>52100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>46200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>43100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>49000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5024,8 +5185,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5104,8 +5266,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5184,8 +5349,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5264,8 +5432,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5344,88 +5515,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E72" s="3">
         <v>143700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>142400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>138000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>133100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>131200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>131400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>128000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>125200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>126900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>118400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>111100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>112000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>111800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>112800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>112500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>113900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>112000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>110100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>99500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>99900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>94000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>92400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>91600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>91700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5504,8 +5681,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5584,8 +5764,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5664,88 +5847,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E76" s="3">
         <v>157300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>151600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>146600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>144700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>145100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>141900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>139200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>141000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>125200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>126200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>126100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>127200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>127000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>128300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>126400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>124600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>111200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>111700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>106100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>104100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>102200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>101700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5824,173 +6013,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44751</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44639</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44387</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44275</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44107</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44023</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43911</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43743</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43659</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43547</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43379</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43295</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43183</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43015</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42931</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42819</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>3600</v>
       </c>
       <c r="T81" s="3">
         <v>3600</v>
       </c>
       <c r="U81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V81" s="3">
         <v>12100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6019,88 +6217,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6179,8 +6381,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6259,8 +6464,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6339,8 +6547,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6419,8 +6630,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6499,88 +6713,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6609,8 +6829,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6618,79 +6839,82 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1000</v>
       </c>
       <c r="T91" s="3">
         <v>-1000</v>
       </c>
       <c r="U91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-400</v>
       </c>
       <c r="AB91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6769,8 +6993,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6849,88 +7076,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>34100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6959,8 +7192,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6974,7 +7208,7 @@
         <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H96" s="3">
         <v>-1900</v>
@@ -6983,7 +7217,7 @@
         <v>-1900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K96" s="3">
         <v>-2000</v>
@@ -6992,7 +7226,7 @@
         <v>-2000</v>
       </c>
       <c r="M96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="N96" s="3">
         <v>-1800</v>
@@ -7022,7 +7256,7 @@
         <v>-1800</v>
       </c>
       <c r="W96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="X96" s="3">
         <v>-1700</v>
@@ -7034,13 +7268,16 @@
         <v>-1700</v>
       </c>
       <c r="AA96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="AB96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7119,8 +7356,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7199,8 +7439,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7279,88 +7522,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>40200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>1900</v>
       </c>
       <c r="R100" s="3">
         <v>1900</v>
       </c>
       <c r="S100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="T100" s="3">
         <v>-1800</v>
       </c>
       <c r="U100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="V100" s="3">
         <v>-24300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7439,84 +7688,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,391 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44751</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44639</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44387</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44275</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44023</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43911</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43743</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43659</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43547</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43379</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43295</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43183</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43015</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42931</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42819</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E8" s="3">
         <v>72100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>94300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>99700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>83500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>47000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>45800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>55600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>51000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>44000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>48700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>52200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>41900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>53900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>31900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>49800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E9" s="3">
         <v>56000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>70600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>63000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>74600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>60300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>31600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>37200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>23200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>40200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>30500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>40800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>23600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>39600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E10" s="3">
         <v>16100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>12000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>10200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1079,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1149,8 +1163,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1232,8 +1249,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1307,54 +1327,57 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
       </c>
       <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
         <v>600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
       </c>
       <c r="M15" s="3">
+        <v>400</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>300</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1363,10 +1386,10 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1375,22 +1398,22 @@
         <v>300</v>
       </c>
       <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
         <v>400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>300</v>
-      </c>
-      <c r="X15" s="3">
-        <v>400</v>
       </c>
       <c r="Y15" s="3">
         <v>400</v>
       </c>
       <c r="Z15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA15" s="3">
         <v>500</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>400</v>
       </c>
       <c r="AB15" s="3">
         <v>400</v>
@@ -1398,8 +1421,11 @@
       <c r="AC15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1426,174 +1452,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E17" s="3">
         <v>67300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>89000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>31700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>46000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>46700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>30400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>47100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>37800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>50600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>29600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>46100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1623,31 +1656,32 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1683,155 +1717,161 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>13100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5800</v>
+        <v>1600</v>
       </c>
       <c r="E21" s="3">
         <v>5800</v>
       </c>
       <c r="F21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G21" s="3">
         <v>10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1843,13 +1883,13 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1872,174 +1912,183 @@
       <c r="AC22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>6900</v>
       </c>
       <c r="L23" s="3">
         <v>6900</v>
       </c>
       <c r="M23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N23" s="3">
         <v>12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2121,174 +2170,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2370,8 +2428,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,17 +2466,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2423,23 +2484,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-600</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2447,14 +2508,17 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2536,8 +2600,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2619,31 +2686,34 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2679,114 +2749,120 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-13100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>3600</v>
       </c>
       <c r="U33" s="3">
         <v>3600</v>
       </c>
       <c r="V33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W33" s="3">
         <v>12100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2868,179 +2944,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>3600</v>
       </c>
       <c r="U35" s="3">
         <v>3600</v>
       </c>
       <c r="V35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W35" s="3">
         <v>12100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44751</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44639</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44387</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44275</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44023</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43911</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43743</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43659</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43547</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43379</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43295</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43183</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43015</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42931</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42819</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3070,8 +3155,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3101,91 +3187,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4000</v>
+        <v>6100</v>
       </c>
       <c r="E41" s="3">
         <v>4000</v>
       </c>
       <c r="F41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2900</v>
-      </c>
-      <c r="X41" s="3">
-        <v>1600</v>
       </c>
       <c r="Y41" s="3">
         <v>1600</v>
       </c>
       <c r="Z41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA41" s="3">
         <v>2300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3267,174 +3357,183 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E43" s="3">
         <v>57400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>66300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>66700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>68800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>52200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>63800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>33000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>41800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>36500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>30800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>40100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>35300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>33000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>29300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>36700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E44" s="3">
         <v>121900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>135000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>130200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>92400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>91800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>86600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>91400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>48400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>48000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>47700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>39100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>45700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>41500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>40100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>35200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>42400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>37500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>37200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>33800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3442,165 +3541,171 @@
         <v>4900</v>
       </c>
       <c r="E45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>3000</v>
       </c>
       <c r="S45" s="3">
         <v>3000</v>
       </c>
       <c r="T45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U45" s="3">
         <v>4200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3000</v>
-      </c>
-      <c r="V45" s="3">
-        <v>2900</v>
       </c>
       <c r="W45" s="3">
         <v>2900</v>
       </c>
       <c r="X45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y45" s="3">
         <v>3400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E46" s="3">
         <v>188200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>209400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>204300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>201000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>171100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>173600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>154300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>155800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>145400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>136900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>109900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>83600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>86900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>93600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>92500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>88000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>87900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>96300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>90600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>75200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>80300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>82800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>75800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>71900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>75600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3662,194 +3767,203 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>20200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>18500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>17400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>19000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E48" s="3">
         <v>33900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13500</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>13700</v>
       </c>
       <c r="AC48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E49" s="3">
         <v>73400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>75000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>54300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>40900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>41200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>41600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>42000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>42500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>42300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3931,8 +4045,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4014,8 +4131,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4023,7 +4143,7 @@
         <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -4032,7 +4152,7 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -4047,10 +4167,10 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -4068,7 +4188,7 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -4083,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -4095,10 +4215,13 @@
         <v>100</v>
       </c>
       <c r="AC52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4180,91 +4303,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>293600</v>
+      </c>
+      <c r="E54" s="3">
         <v>298700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>320300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>316900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>307100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>251800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>254200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>231600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>232000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>198700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>170900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>145400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>148800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>156000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>150300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>149500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>149800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>144100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>150200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>156100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>158200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>150200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>145300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>150800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4294,8 +4423,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4325,91 +4455,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E57" s="3">
         <v>9400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4434,12 +4568,12 @@
       <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -4450,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4459,7 +4593,7 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4471,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>18900</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1300</v>
       </c>
       <c r="Y58" s="3">
         <v>1300</v>
@@ -4489,209 +4623,218 @@
         <v>1300</v>
       </c>
       <c r="AC58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>22400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>12800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E60" s="3">
         <v>38900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>53200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>32300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>18600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>18400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E61" s="3">
         <v>87700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>99600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>94000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>92900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>51900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>42900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4702,17 +4845,17 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>5200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4720,84 +4863,87 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>3800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>22400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>23000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>24200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E62" s="3">
         <v>13600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>5100</v>
       </c>
       <c r="R62" s="3">
         <v>5100</v>
       </c>
       <c r="S62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T62" s="3">
         <v>4800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4500</v>
-      </c>
-      <c r="U62" s="3">
-        <v>3000</v>
       </c>
       <c r="V62" s="3">
         <v>3000</v>
@@ -4809,22 +4955,25 @@
         <v>3000</v>
       </c>
       <c r="Y62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z62" s="3">
         <v>5400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>6400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4906,8 +5055,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4989,8 +5141,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5072,91 +5227,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E66" s="3">
         <v>140200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>163000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>160900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>105200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>86500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>44400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>52100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>46200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>43100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>49000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5186,8 +5347,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5269,8 +5431,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5352,8 +5517,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5435,8 +5603,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5518,91 +5689,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E72" s="3">
         <v>144900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>143700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>142400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>138000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>133100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>131200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>131400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>128000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>125200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>126900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>118400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>111100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>112000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>111800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>112800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>112500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>113900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>112000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>110100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>99500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>99900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>94000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>92400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>91600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>91700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5684,8 +5861,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5767,8 +5947,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5850,91 +6033,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E76" s="3">
         <v>158500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>157300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>151600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>146600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>144700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>145100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>141900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>139200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>141000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>125200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>126200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>126100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>127200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>127000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>128300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>126400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>124600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>111200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>111700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>106100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>104100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>102200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>101700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6016,179 +6205,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44751</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44639</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44387</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44275</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44023</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43911</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43743</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43659</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43547</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43379</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43295</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43183</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43015</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42931</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42819</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>3600</v>
       </c>
       <c r="U81" s="3">
         <v>3600</v>
       </c>
       <c r="V81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W81" s="3">
         <v>12100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6218,91 +6416,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6384,8 +6586,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6467,8 +6672,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6550,8 +6758,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6633,8 +6844,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6716,91 +6930,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>14300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>10300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6830,91 +7050,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1000</v>
       </c>
       <c r="U91" s="3">
         <v>-1000</v>
       </c>
       <c r="V91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-400</v>
       </c>
       <c r="AC91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6996,8 +7220,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7079,91 +7306,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>34100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7193,13 +7426,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E96" s="3">
         <v>-2000</v>
@@ -7211,7 +7445,7 @@
         <v>-2000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>-1900</v>
@@ -7220,7 +7454,7 @@
         <v>-1900</v>
       </c>
       <c r="K96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="L96" s="3">
         <v>-2000</v>
@@ -7229,7 +7463,7 @@
         <v>-2000</v>
       </c>
       <c r="N96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="O96" s="3">
         <v>-1800</v>
@@ -7259,7 +7493,7 @@
         <v>-1800</v>
       </c>
       <c r="X96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Y96" s="3">
         <v>-1700</v>
@@ -7271,13 +7505,16 @@
         <v>-1700</v>
       </c>
       <c r="AB96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="AC96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7359,8 +7596,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7442,8 +7682,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7525,91 +7768,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>40200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="R100" s="3">
-        <v>1900</v>
       </c>
       <c r="S100" s="3">
         <v>1900</v>
       </c>
       <c r="T100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="U100" s="3">
         <v>-1800</v>
       </c>
       <c r="V100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="W100" s="3">
         <v>-24300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-13500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7691,87 +7940,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,391 +665,404 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44751</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44387</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44275</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44023</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43911</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43743</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43659</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43547</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43379</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43295</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43183</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43015</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42931</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42819</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E8" s="3">
         <v>56900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>72100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>72400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>59200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>83500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>47000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>45800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>55600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>51000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>48700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>52200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>41900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>53900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>31900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>49800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E9" s="3">
         <v>45900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>56000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>70600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>57100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>60300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>31600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>37200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>23200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>40200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>30500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>40800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>23600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>39600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E10" s="3">
         <v>11000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>12000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>11400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>13100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>10200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1093,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1166,8 +1180,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1252,8 +1269,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1330,16 +1350,19 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,40 +1370,40 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
       <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
         <v>600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
       </c>
       <c r="N15" s="3">
+        <v>400</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1389,10 +1412,10 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>500</v>
-      </c>
-      <c r="T15" s="3">
-        <v>300</v>
       </c>
       <c r="U15" s="3">
         <v>300</v>
@@ -1401,22 +1424,22 @@
         <v>300</v>
       </c>
       <c r="W15" s="3">
+        <v>300</v>
+      </c>
+      <c r="X15" s="3">
         <v>400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>300</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>400</v>
       </c>
       <c r="Z15" s="3">
         <v>400</v>
       </c>
       <c r="AA15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB15" s="3">
         <v>500</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>400</v>
       </c>
       <c r="AC15" s="3">
         <v>400</v>
@@ -1424,8 +1447,11 @@
       <c r="AD15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,180 +1479,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E17" s="3">
         <v>56800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>43500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>31700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>46000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>38800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>46700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>30400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>47100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>37800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>50600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>29600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>46100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1657,8 +1690,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1666,25 +1700,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1720,161 +1754,167 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>13100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5800</v>
       </c>
       <c r="F21" s="3">
         <v>5800</v>
       </c>
       <c r="G21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H21" s="3">
         <v>10300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>16200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1886,13 +1926,13 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1915,180 +1955,189 @@
       <c r="AD22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>6900</v>
       </c>
       <c r="M23" s="3">
         <v>6900</v>
       </c>
       <c r="N23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O23" s="3">
         <v>12800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2173,180 +2222,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2431,8 +2489,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2469,17 +2530,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2487,23 +2548,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>3000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,14 +2572,17 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2603,8 +2667,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2689,8 +2756,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2698,25 +2768,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2752,117 +2822,123 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-13100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>3600</v>
       </c>
       <c r="V33" s="3">
         <v>3600</v>
       </c>
       <c r="W33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X33" s="3">
         <v>12100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2947,185 +3023,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>3600</v>
       </c>
       <c r="V35" s="3">
         <v>3600</v>
       </c>
       <c r="W35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X35" s="3">
         <v>12100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44751</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44387</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44275</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44023</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43911</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43743</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43659</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43547</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43379</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43295</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43183</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43015</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42931</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42819</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3156,8 +3241,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3188,94 +3274,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4000</v>
       </c>
       <c r="F41" s="3">
         <v>4000</v>
       </c>
       <c r="G41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2900</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>1600</v>
       </c>
       <c r="Z41" s="3">
         <v>1600</v>
       </c>
       <c r="AA41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB41" s="3">
         <v>2300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3360,352 +3450,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E43" s="3">
         <v>50600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>60600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>68800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>63800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>37200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>36900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>33000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>41800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>36500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>30800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>29400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>40100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>35300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>33000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>29300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>36700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E44" s="3">
         <v>122500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>121900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>135000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>130200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>92400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>91800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>91400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>48400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>48000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>47700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>39100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>45700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>41500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>40100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>35200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>42400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>37500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>37200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>33800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4900</v>
+        <v>3900</v>
       </c>
       <c r="E45" s="3">
         <v>4900</v>
       </c>
       <c r="F45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>3000</v>
       </c>
       <c r="T45" s="3">
         <v>3000</v>
       </c>
       <c r="U45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V45" s="3">
         <v>4200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3000</v>
-      </c>
-      <c r="W45" s="3">
-        <v>2900</v>
       </c>
       <c r="X45" s="3">
         <v>2900</v>
       </c>
       <c r="Y45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z45" s="3">
         <v>3400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E46" s="3">
         <v>184000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>188200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>209400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>204300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>201000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>171100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>173600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>155800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>145400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>136900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>109900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>86900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>93600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>92500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>88000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>87900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>96300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>90600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>75200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>80300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>82800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>75800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>71900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>75600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3770,200 +3875,209 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>20200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>19600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>18500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>17400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>19000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E48" s="3">
         <v>33500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>13500</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>13700</v>
       </c>
       <c r="AD48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E49" s="3">
         <v>72800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>44800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>46200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>40500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>40900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>41200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>41600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>42000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>42500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>42300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4048,8 +4162,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4134,19 +4251,22 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="3">
         <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -4155,7 +4275,7 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -4170,10 +4290,10 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -4191,7 +4311,7 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4206,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4218,10 +4338,13 @@
         <v>100</v>
       </c>
       <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4306,94 +4429,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E54" s="3">
         <v>293600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>298700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>320300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>316900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>307100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>251800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>254200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>231600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>232000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>170900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>145400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>148800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>156000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>155500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>150300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>149500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>149800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>144100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>150200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>156100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>158200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>150200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>145300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>150800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4424,8 +4553,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4456,94 +4586,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E57" s="3">
         <v>17200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4571,12 +4705,12 @@
       <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -4587,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4596,7 +4730,7 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4608,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>18900</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>1300</v>
       </c>
       <c r="Z58" s="3">
         <v>1300</v>
@@ -4626,218 +4760,227 @@
         <v>1300</v>
       </c>
       <c r="AD58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>12800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E60" s="3">
         <v>35900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>32300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>18600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>18400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E61" s="3">
         <v>88100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>87700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>99600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>94000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>92900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>51900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4848,17 +4991,17 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>5200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4866,87 +5009,90 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>3800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>22400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>23000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>24200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E62" s="3">
         <v>13300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>5100</v>
       </c>
       <c r="S62" s="3">
         <v>5100</v>
       </c>
       <c r="T62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="U62" s="3">
         <v>4800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4500</v>
-      </c>
-      <c r="V62" s="3">
-        <v>3000</v>
       </c>
       <c r="W62" s="3">
         <v>3000</v>
@@ -4958,22 +5104,25 @@
         <v>3000</v>
       </c>
       <c r="Z62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA62" s="3">
         <v>5400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>6400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5058,8 +5207,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5144,8 +5296,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5230,94 +5385,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E66" s="3">
         <v>137300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>140200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>163000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>160900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>39000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>44400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>52100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>46200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>43100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>49000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5348,8 +5509,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5434,8 +5596,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5520,8 +5685,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5606,8 +5774,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5692,94 +5863,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E72" s="3">
         <v>142600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>144900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>143700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>142400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>138000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>133100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>131200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>131400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>128000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>125200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>126900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>118400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>111100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>112000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>111800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>112800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>112500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>113900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>112000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>110100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>99500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>99900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>94000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>92400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>91600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>91700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5864,8 +6041,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5950,8 +6130,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6036,94 +6219,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E76" s="3">
         <v>156300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>158500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>157300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>151600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>146600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>144700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>145100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>141900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>139200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>141000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>125200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>126200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>126100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>127200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>127000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>128300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>126400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>124600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>111200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>111700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>106100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>104100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>102200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>101700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6208,185 +6397,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44751</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44387</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44275</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44023</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43911</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43743</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43659</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43547</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43379</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43295</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43183</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43015</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42931</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42819</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>3600</v>
       </c>
       <c r="V81" s="3">
         <v>3600</v>
       </c>
       <c r="W81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X81" s="3">
         <v>12100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6417,8 +6615,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6426,85 +6625,88 @@
         <v>1400</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6589,8 +6791,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6675,8 +6880,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6761,8 +6969,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6847,8 +7058,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6933,94 +7147,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E89" s="3">
         <v>4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>10300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7051,94 +7271,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1000</v>
       </c>
       <c r="V91" s="3">
         <v>-1000</v>
       </c>
       <c r="W91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-400</v>
       </c>
       <c r="AD91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7223,8 +7447,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7309,94 +7536,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>34100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7427,8 +7660,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7436,7 +7670,7 @@
         <v>-2100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F96" s="3">
         <v>-2000</v>
@@ -7448,7 +7682,7 @@
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-1900</v>
@@ -7457,7 +7691,7 @@
         <v>-1900</v>
       </c>
       <c r="L96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="M96" s="3">
         <v>-2000</v>
@@ -7466,7 +7700,7 @@
         <v>-2000</v>
       </c>
       <c r="O96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="P96" s="3">
         <v>-1800</v>
@@ -7496,7 +7730,7 @@
         <v>-1800</v>
       </c>
       <c r="Y96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Z96" s="3">
         <v>-1700</v>
@@ -7508,13 +7742,16 @@
         <v>-1700</v>
       </c>
       <c r="AC96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="AD96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7599,8 +7836,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7685,8 +7925,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7771,94 +8014,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>40200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="S100" s="3">
-        <v>1900</v>
       </c>
       <c r="T100" s="3">
         <v>1900</v>
       </c>
       <c r="U100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="V100" s="3">
         <v>-1800</v>
       </c>
       <c r="W100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X100" s="3">
         <v>-24300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-13500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7943,90 +8192,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ESCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,404 +665,417 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44751</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44387</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44275</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44107</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44023</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43911</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43743</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43659</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43547</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43379</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43295</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43183</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43015</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42931</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42819</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E8" s="3">
         <v>67800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>72400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>59200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>83500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>47000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>45800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>55600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>51000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>48700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>32100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>52200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>41900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>53900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>31900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>49800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E9" s="3">
         <v>51100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>56000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>70600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>57100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>56900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>60300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>31600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>37200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>23200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>40200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>30500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>40800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>23600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>39600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E10" s="3">
         <v>16700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>12000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>11400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>13100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>10200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1094,8 +1107,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1183,8 +1197,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1272,8 +1289,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,16 +1373,19 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,40 +1396,40 @@
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
       </c>
       <c r="L15" s="3">
+        <v>400</v>
+      </c>
+      <c r="M15" s="3">
         <v>600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -1415,10 +1438,10 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>300</v>
       </c>
       <c r="V15" s="3">
         <v>300</v>
@@ -1427,22 +1450,22 @@
         <v>300</v>
       </c>
       <c r="X15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>300</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>400</v>
       </c>
       <c r="AA15" s="3">
         <v>400</v>
       </c>
       <c r="AB15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC15" s="3">
         <v>500</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>400</v>
       </c>
       <c r="AD15" s="3">
         <v>400</v>
@@ -1450,8 +1473,11 @@
       <c r="AE15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1480,186 +1506,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E17" s="3">
         <v>61500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>89000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>42900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>53200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>31700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>46000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>38800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>46700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>30400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>47100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>37800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>50600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>29600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>46100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E18" s="3">
         <v>6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1691,8 +1724,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1703,25 +1737,25 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1757,167 +1791,173 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>13100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5800</v>
       </c>
       <c r="G21" s="3">
         <v>5800</v>
       </c>
       <c r="H21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I21" s="3">
         <v>10300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>16200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1929,13 +1969,13 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>200</v>
@@ -1958,186 +1998,195 @@
       <c r="AE22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>6900</v>
       </c>
       <c r="N23" s="3">
         <v>6900</v>
       </c>
       <c r="O23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P23" s="3">
         <v>12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>4400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2225,186 +2274,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2492,8 +2550,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2533,17 +2594,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2551,23 +2612,23 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-600</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>3000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2575,14 +2636,17 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2670,8 +2734,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2759,8 +2826,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2771,25 +2841,25 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2825,120 +2895,126 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>3600</v>
       </c>
       <c r="W33" s="3">
         <v>3600</v>
       </c>
       <c r="X33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y33" s="3">
         <v>12100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3026,191 +3102,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>3600</v>
       </c>
       <c r="W35" s="3">
         <v>3600</v>
       </c>
       <c r="X35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y35" s="3">
         <v>12100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44751</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44387</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44275</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44107</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44023</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43911</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43743</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43659</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43547</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43379</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43295</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43183</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43015</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42931</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42819</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3242,8 +3327,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3275,97 +3361,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4000</v>
       </c>
       <c r="G41" s="3">
         <v>4000</v>
       </c>
       <c r="H41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2900</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>1600</v>
       </c>
       <c r="AA41" s="3">
         <v>1600</v>
       </c>
       <c r="AB41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC41" s="3">
         <v>2300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3453,364 +3543,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E43" s="3">
         <v>56500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>67300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>63800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>49500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>37200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>33000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>41800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>36500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>30800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>40100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>35300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>33000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>29300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>36700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E44" s="3">
         <v>111700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>122500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>121900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>135000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>130200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>91800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>91400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>72500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>48400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>48000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>47700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>39100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>45700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>41500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>40100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>35200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>42400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>37500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>37200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>33800</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4900</v>
       </c>
       <c r="F45" s="3">
         <v>4900</v>
       </c>
       <c r="G45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2700</v>
-      </c>
-      <c r="T45" s="3">
-        <v>3000</v>
       </c>
       <c r="U45" s="3">
         <v>3000</v>
       </c>
       <c r="V45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W45" s="3">
         <v>4200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3000</v>
-      </c>
-      <c r="X45" s="3">
-        <v>2900</v>
       </c>
       <c r="Y45" s="3">
         <v>2900</v>
       </c>
       <c r="Z45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA45" s="3">
         <v>3400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E46" s="3">
         <v>172700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>188200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>209400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>204300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>201000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>171100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>173600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>154300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>155800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>145400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>136900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>109900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>83600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>86900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>93600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>92500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>88000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>87900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>96300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>90600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>75200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>80300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>82800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>75800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>71900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>75600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>89700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3878,206 +3983,215 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>20200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>20300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>19600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>18500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>17400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>19000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E48" s="3">
         <v>32900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>33900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>14200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>13900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>13500</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>13700</v>
       </c>
       <c r="AE48" s="3">
         <v>13700</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E49" s="3">
         <v>72200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>72800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>73900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>74600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>55300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>44500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>44800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>46200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>40200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>40500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>40900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>41200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>41600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>42000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>42500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>42300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4165,8 +4279,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4254,22 +4371,25 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3200</v>
       </c>
       <c r="F52" s="3">
         <v>3200</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -4278,7 +4398,7 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -4293,10 +4413,10 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -4314,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4329,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
@@ -4341,10 +4461,13 @@
         <v>100</v>
       </c>
       <c r="AE52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4432,97 +4555,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>283400</v>
+      </c>
+      <c r="E54" s="3">
         <v>281100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>293600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>298700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>320300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>316900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>307100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>251800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>254200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>231600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>232000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>170900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>145400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>148800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>156000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>155500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>150300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>149500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>149800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>144100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>150200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>156100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>158200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>150200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>145300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>150800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4554,8 +4683,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4587,97 +4717,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E57" s="3">
         <v>14700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4708,12 +4842,12 @@
       <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -4724,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4733,7 +4867,7 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4745,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>18900</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>1300</v>
       </c>
       <c r="AA58" s="3">
         <v>1300</v>
@@ -4763,227 +4897,236 @@
         <v>1300</v>
       </c>
       <c r="AE58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AF58" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>9200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>12800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E60" s="3">
         <v>32700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>32300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>18600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>18400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E61" s="3">
         <v>76800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>88100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>87700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>99600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>94000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>92900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>51900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4994,17 +5137,17 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>5200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -5012,28 +5155,31 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>3800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>22400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>23000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>24200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5041,61 +5187,61 @@
         <v>13100</v>
       </c>
       <c r="E62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F62" s="3">
         <v>13300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4400</v>
-      </c>
-      <c r="S62" s="3">
-        <v>5100</v>
       </c>
       <c r="T62" s="3">
         <v>5100</v>
       </c>
       <c r="U62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="V62" s="3">
         <v>4800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4500</v>
-      </c>
-      <c r="W62" s="3">
-        <v>3000</v>
       </c>
       <c r="X62" s="3">
         <v>3000</v>
@@ -5107,22 +5253,25 @@
         <v>3000</v>
       </c>
       <c r="AA62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB62" s="3">
         <v>5400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>6400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5210,8 +5359,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5299,8 +5451,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5388,97 +5543,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E66" s="3">
         <v>122700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>137300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>140200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>163000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>160900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>39000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>44400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>52100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>46200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>43100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>49000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5510,8 +5671,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5599,8 +5761,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5688,8 +5853,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5777,8 +5945,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5866,97 +6037,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E72" s="3">
         <v>144700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>142600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>144900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>143700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>142400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>138000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>133100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>131200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>131400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>128000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>125200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>126900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>118400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>111100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>112000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>111800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>112800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>112500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>113900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>112000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>110100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>99500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>99900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>94000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>92400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>91600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>91700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>89600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6044,8 +6221,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6133,8 +6313,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6222,97 +6405,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E76" s="3">
         <v>158400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>158500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>157300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>151600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>144700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>145100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>141900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>139200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>141000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>132600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>125200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>126200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>126100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>127200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>127000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>128300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>126400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>124600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>111200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>111700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>106100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>104100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>102200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>101700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>100600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6400,191 +6589,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44751</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44387</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44275</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44107</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44023</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43911</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43743</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43659</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43547</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43379</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43295</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43183</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43015</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42931</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42819</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>3600</v>
       </c>
       <c r="W81" s="3">
         <v>3600</v>
       </c>
       <c r="X81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y81" s="3">
         <v>12100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6616,8 +6814,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6628,85 +6827,88 @@
         <v>1400</v>
       </c>
       <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6794,8 +6996,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6883,8 +7088,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6972,8 +7180,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7061,8 +7272,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7150,97 +7364,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E89" s="3">
         <v>8400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>5900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>10300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7272,97 +7492,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1000</v>
       </c>
       <c r="W91" s="3">
         <v>-1000</v>
       </c>
       <c r="X91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>-400</v>
       </c>
       <c r="AE91" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7450,8 +7674,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7539,97 +7766,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>34100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7661,8 +7894,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7673,7 +7907,7 @@
         <v>-2100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G96" s="3">
         <v>-2000</v>
@@ -7685,7 +7919,7 @@
         <v>-2000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K96" s="3">
         <v>-1900</v>
@@ -7694,7 +7928,7 @@
         <v>-1900</v>
       </c>
       <c r="M96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="N96" s="3">
         <v>-2000</v>
@@ -7703,7 +7937,7 @@
         <v>-2000</v>
       </c>
       <c r="P96" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="Q96" s="3">
         <v>-1800</v>
@@ -7733,7 +7967,7 @@
         <v>-1800</v>
       </c>
       <c r="Z96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="AA96" s="3">
         <v>-1700</v>
@@ -7745,13 +7979,16 @@
         <v>-1700</v>
       </c>
       <c r="AD96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="AE96" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7839,8 +8076,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7928,8 +8168,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8017,97 +8260,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>40200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5900</v>
-      </c>
-      <c r="T100" s="3">
-        <v>1900</v>
       </c>
       <c r="U100" s="3">
         <v>1900</v>
       </c>
       <c r="V100" s="3">
-        <v>-1800</v>
+        <v>1900</v>
       </c>
       <c r="W100" s="3">
         <v>-1800</v>
       </c>
       <c r="X100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-24300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-13500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8195,93 +8444,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1000</v>
       </c>
     </row>
